--- a/mosip_master/xlsx/dynamic_field.xlsx
+++ b/mosip_master/xlsx/dynamic_field.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sao Tome and Principe\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA5B7D2-A993-487F-9C8A-EE5187ABDF3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6720" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$67</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="82">
   <si>
     <t>id</t>
   </si>
@@ -436,27 +437,6 @@
   <si>
     <t xml:space="preserve">
 	{
-		"code": "MLE",
-		"value": "Mâle"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "Femelle"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "Autres"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
 		"code": "FR",
 		"value": "Étrangère"
 	}</t>
@@ -469,210 +449,33 @@
 	}</t>
   </si>
   <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "أ",
-	}</t>
-  </si>
-  <si>
-    <t>ara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "أ +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "أ-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "ب",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "ب +",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ب-",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "110",
-		"value": "ا",
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "112",
-		"value": "س-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "113",
-		"value": "لا اعرف"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "114",
-		"value": "غير قابل للتطبيق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "غير مرتبطة
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "زوجت"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "الأرامل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "104",
-		"value": "مطلق"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "105",
-		"value": "مطلق من الناحية القانونية
-"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "106",
-		"value": "ملغاة"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "107",
-		"value": "مبطل"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Document-based",
-		"value": "مستند إلى المستند"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "Introducer-based",
-		"value": "المعرف القائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "101",
-		"value": "يلتقط"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "102",
-		"value": "التسليم إلى العنوان الدائم"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "103",
-		"value": "التسليم إلى العنوان الحالي"
-	}</t>
+    <t>{"value":"عربي","code":"ara"}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+	{
+		"code": "FLE",
+		"value": "F"
+	}</t>
+  </si>
+  <si>
+    <t>por</t>
   </si>
   <si>
     <t xml:space="preserve">
 	{
 		"code": "MLE",
-		"value": "ذكر"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FLE",
-		"value": "أنثى"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "OTH",
-		"value": "آحرون"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "FR",
-		"value": "أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-	{
-		"code": "NFR",
-		"value": "غير أجنبي"
-	}</t>
-  </si>
-  <si>
-    <t>{"value":"عربى","code":"ara"}</t>
-  </si>
-  <si>
-    <t>{"value":"عربي","code":"ara"}</t>
+		"value": "M"
+	}</t>
+  </si>
+  <si>
+    <t>{"value":"Português","code":"por"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -731,7 +534,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1014,27 +817,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B99" sqref="B99:B103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1063,7 +867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10001</v>
       </c>
@@ -1093,7 +897,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10002</v>
       </c>
@@ -1123,7 +927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10003</v>
       </c>
@@ -1153,7 +957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10004</v>
       </c>
@@ -1183,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>10005</v>
       </c>
@@ -1213,7 +1017,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10006</v>
       </c>
@@ -1243,7 +1047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>10007</v>
       </c>
@@ -1273,7 +1077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10008</v>
       </c>
@@ -1303,7 +1107,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10009</v>
       </c>
@@ -1333,7 +1137,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10010</v>
       </c>
@@ -1363,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10011</v>
       </c>
@@ -1393,7 +1197,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>10012</v>
       </c>
@@ -1423,7 +1227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>10013</v>
       </c>
@@ -1453,7 +1257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10014</v>
       </c>
@@ -1483,7 +1287,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>10015</v>
       </c>
@@ -1513,7 +1317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10016</v>
       </c>
@@ -1543,7 +1347,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10017</v>
       </c>
@@ -1573,7 +1377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10018</v>
       </c>
@@ -1603,7 +1407,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10019</v>
       </c>
@@ -1633,7 +1437,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10020</v>
       </c>
@@ -1663,7 +1467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>10021</v>
       </c>
@@ -1693,7 +1497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>10022</v>
       </c>
@@ -1723,7 +1527,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>10023</v>
       </c>
@@ -1753,7 +1557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10024</v>
       </c>
@@ -1783,7 +1587,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>10025</v>
       </c>
@@ -1813,7 +1617,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>10026</v>
       </c>
@@ -1843,7 +1647,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>10027</v>
       </c>
@@ -1873,7 +1677,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>10028</v>
       </c>
@@ -1903,7 +1707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>10029</v>
       </c>
@@ -1933,7 +1737,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10030</v>
       </c>
@@ -1963,7 +1767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>10031</v>
       </c>
@@ -1993,7 +1797,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>10310</v>
       </c>
@@ -2023,7 +1827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>10313</v>
       </c>
@@ -2037,10 +1841,10 @@
         <v>11</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="G34" s="3" t="b">
         <f>TRUE()</f>
@@ -2053,7 +1857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>10317</v>
       </c>
@@ -2083,7 +1887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>10319</v>
       </c>
@@ -2113,7 +1917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>10063</v>
       </c>
@@ -2143,7 +1947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>10064</v>
       </c>
@@ -2173,7 +1977,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>10065</v>
       </c>
@@ -2203,7 +2007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>10066</v>
       </c>
@@ -2233,7 +2037,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>10067</v>
       </c>
@@ -2263,7 +2067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>10068</v>
       </c>
@@ -2293,7 +2097,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>10069</v>
       </c>
@@ -2323,7 +2127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10070</v>
       </c>
@@ -2353,7 +2157,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>10071</v>
       </c>
@@ -2383,7 +2187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>10072</v>
       </c>
@@ -2413,7 +2217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>10073</v>
       </c>
@@ -2443,7 +2247,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>10074</v>
       </c>
@@ -2473,7 +2277,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>10075</v>
       </c>
@@ -2503,7 +2307,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>10076</v>
       </c>
@@ -2533,7 +2337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>10077</v>
       </c>
@@ -2563,7 +2367,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>10078</v>
       </c>
@@ -2593,7 +2397,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>10079</v>
       </c>
@@ -2623,7 +2427,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>10080</v>
       </c>
@@ -2653,7 +2457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>10081</v>
       </c>
@@ -2683,7 +2487,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>10082</v>
       </c>
@@ -2713,7 +2517,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>10083</v>
       </c>
@@ -2743,7 +2547,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10084</v>
       </c>
@@ -2773,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>10085</v>
       </c>
@@ -2803,7 +2607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>10086</v>
       </c>
@@ -2833,7 +2637,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>10087</v>
       </c>
@@ -2863,7 +2667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>10088</v>
       </c>
@@ -2893,7 +2697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>10089</v>
       </c>
@@ -2907,10 +2711,10 @@
         <v>11</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G63" s="3" t="b">
         <f>TRUE()</f>
@@ -2923,7 +2727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>10090</v>
       </c>
@@ -2937,10 +2741,10 @@
         <v>11</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="G64" s="3" t="b">
         <f>TRUE()</f>
@@ -2953,21 +2757,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>10091</v>
+        <v>10092</v>
       </c>
       <c r="B65" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C65" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F65" t="s">
         <v>60</v>
@@ -2983,9 +2787,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>10092</v>
+        <v>10093</v>
       </c>
       <c r="B66" t="s">
         <v>52</v>
@@ -2997,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" t="s">
         <v>60</v>
@@ -3013,1106 +2817,42 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>10093</v>
-      </c>
-      <c r="B67" t="s">
-        <v>52</v>
-      </c>
-      <c r="C67" t="s">
-        <v>52</v>
-      </c>
-      <c r="D67" t="s">
-        <v>11</v>
+        <v>10127</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G67" s="3" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>10094</v>
-      </c>
-      <c r="B68" t="s">
-        <v>9</v>
-      </c>
-      <c r="C68" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" t="s">
-        <v>11</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F68" t="s">
-        <v>81</v>
-      </c>
-      <c r="G68" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I68" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>10095</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69" t="s">
-        <v>10</v>
-      </c>
-      <c r="D69" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F69" t="s">
-        <v>81</v>
-      </c>
-      <c r="G69" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>14</v>
-      </c>
-      <c r="I69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>10096</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" t="s">
-        <v>10</v>
-      </c>
-      <c r="D70" t="s">
-        <v>11</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F70" t="s">
-        <v>81</v>
-      </c>
-      <c r="G70" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>10097</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>10</v>
-      </c>
-      <c r="D71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H71" t="s">
-        <v>14</v>
-      </c>
-      <c r="I71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>10098</v>
-      </c>
-      <c r="B72" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F72" t="s">
-        <v>81</v>
-      </c>
-      <c r="G72" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>10099</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73" t="s">
-        <v>10</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H73" t="s">
-        <v>14</v>
-      </c>
-      <c r="I73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>10100</v>
-      </c>
-      <c r="B74" t="s">
-        <v>9</v>
-      </c>
-      <c r="C74" t="s">
-        <v>10</v>
-      </c>
-      <c r="D74" t="s">
-        <v>11</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F74" t="s">
-        <v>81</v>
-      </c>
-      <c r="G74" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H74" t="s">
-        <v>14</v>
-      </c>
-      <c r="I74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>10101</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>14</v>
-      </c>
-      <c r="I75" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>10102</v>
-      </c>
-      <c r="B76" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" t="s">
-        <v>10</v>
-      </c>
-      <c r="D76" t="s">
-        <v>11</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F76" t="s">
-        <v>81</v>
-      </c>
-      <c r="G76" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H76" t="s">
-        <v>14</v>
-      </c>
-      <c r="I76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>10103</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" t="s">
-        <v>10</v>
-      </c>
-      <c r="D77" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H77" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>10104</v>
-      </c>
-      <c r="B78" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" t="s">
-        <v>10</v>
-      </c>
-      <c r="D78" t="s">
-        <v>11</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H78" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>10105</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79" t="s">
-        <v>10</v>
-      </c>
-      <c r="D79" t="s">
-        <v>11</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H79" t="s">
-        <v>14</v>
-      </c>
-      <c r="I79" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10106</v>
-      </c>
-      <c r="B80" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F80" t="s">
-        <v>81</v>
-      </c>
-      <c r="G80" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H80" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>10107</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H81" t="s">
-        <v>14</v>
-      </c>
-      <c r="I81" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10108</v>
-      </c>
-      <c r="B82" t="s">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>30</v>
-      </c>
-      <c r="D82" t="s">
-        <v>11</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F82" t="s">
-        <v>81</v>
-      </c>
-      <c r="G82" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H82" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>10109</v>
-      </c>
-      <c r="B83" t="s">
-        <v>29</v>
-      </c>
-      <c r="C83" t="s">
-        <v>30</v>
-      </c>
-      <c r="D83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83" t="s">
-        <v>81</v>
-      </c>
-      <c r="G83" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H83" t="s">
-        <v>14</v>
-      </c>
-      <c r="I83" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>10110</v>
-      </c>
-      <c r="B84" t="s">
-        <v>29</v>
-      </c>
-      <c r="C84" t="s">
-        <v>30</v>
-      </c>
-      <c r="D84" t="s">
-        <v>11</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H84" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>10111</v>
-      </c>
-      <c r="B85" t="s">
-        <v>29</v>
-      </c>
-      <c r="C85" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F85" t="s">
-        <v>81</v>
-      </c>
-      <c r="G85" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H85" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>10112</v>
-      </c>
-      <c r="B86" t="s">
-        <v>29</v>
-      </c>
-      <c r="C86" t="s">
-        <v>30</v>
-      </c>
-      <c r="D86" t="s">
-        <v>11</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H86" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>10113</v>
-      </c>
-      <c r="B87" t="s">
-        <v>29</v>
-      </c>
-      <c r="C87" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F87" t="s">
-        <v>81</v>
-      </c>
-      <c r="G87" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H87" t="s">
-        <v>14</v>
-      </c>
-      <c r="I87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>10114</v>
-      </c>
-      <c r="B88" t="s">
-        <v>29</v>
-      </c>
-      <c r="C88" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" t="s">
-        <v>11</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F88" t="s">
-        <v>81</v>
-      </c>
-      <c r="G88" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H88" t="s">
-        <v>14</v>
-      </c>
-      <c r="I88" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>10115</v>
-      </c>
-      <c r="B89" t="s">
-        <v>38</v>
-      </c>
-      <c r="C89" t="s">
-        <v>39</v>
-      </c>
-      <c r="D89" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>14</v>
-      </c>
-      <c r="I89" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>10116</v>
-      </c>
-      <c r="B90" t="s">
-        <v>38</v>
-      </c>
-      <c r="C90" t="s">
-        <v>39</v>
-      </c>
-      <c r="D90" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" t="s">
-        <v>81</v>
-      </c>
-      <c r="G90" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H90" t="s">
-        <v>14</v>
-      </c>
-      <c r="I90" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>10117</v>
-      </c>
-      <c r="B91" t="s">
-        <v>42</v>
-      </c>
-      <c r="C91" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H91" t="s">
-        <v>14</v>
-      </c>
-      <c r="I91" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>10118</v>
-      </c>
-      <c r="B92" t="s">
-        <v>42</v>
-      </c>
-      <c r="C92" t="s">
-        <v>43</v>
-      </c>
-      <c r="D92" t="s">
-        <v>11</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F92" t="s">
-        <v>81</v>
-      </c>
-      <c r="G92" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H92" t="s">
-        <v>14</v>
-      </c>
-      <c r="I92" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>10119</v>
-      </c>
-      <c r="B93" t="s">
-        <v>42</v>
-      </c>
-      <c r="C93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" t="s">
-        <v>81</v>
-      </c>
-      <c r="G93" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H93" t="s">
-        <v>14</v>
-      </c>
-      <c r="I93" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>10120</v>
-      </c>
-      <c r="B94" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" t="s">
-        <v>48</v>
-      </c>
-      <c r="D94" t="s">
-        <v>11</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F94" t="s">
-        <v>81</v>
-      </c>
-      <c r="G94" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H94" t="s">
-        <v>14</v>
-      </c>
-      <c r="I94" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>10121</v>
-      </c>
-      <c r="B95" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" t="s">
-        <v>48</v>
-      </c>
-      <c r="D95" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F95" t="s">
-        <v>81</v>
-      </c>
-      <c r="G95" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H95" t="s">
-        <v>14</v>
-      </c>
-      <c r="I95" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>10122</v>
-      </c>
-      <c r="B96" t="s">
-        <v>47</v>
-      </c>
-      <c r="C96" t="s">
-        <v>48</v>
-      </c>
-      <c r="D96" t="s">
-        <v>11</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F96" t="s">
-        <v>81</v>
-      </c>
-      <c r="G96" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H96" t="s">
-        <v>14</v>
-      </c>
-      <c r="I96" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>10123</v>
-      </c>
-      <c r="B97" t="s">
-        <v>52</v>
-      </c>
-      <c r="C97" t="s">
-        <v>52</v>
-      </c>
-      <c r="D97" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H97" t="s">
-        <v>14</v>
-      </c>
-      <c r="I97" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>10124</v>
-      </c>
-      <c r="B98" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" t="s">
-        <v>52</v>
-      </c>
-      <c r="D98" t="s">
-        <v>11</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F98" t="s">
-        <v>81</v>
-      </c>
-      <c r="G98" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H98" t="s">
-        <v>14</v>
-      </c>
-      <c r="I98" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>10125</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I99" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>10126</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I100" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>10127</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G101" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H101" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I101" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>10128</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F102" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G102" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>10129</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G103" s="3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I103" s="2" t="s">
+      <c r="H67" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" s="2" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I103"/>
+  <autoFilter ref="A1:I67" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Gender"/>
+        <filter val="user preferred Language"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
